--- a/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
+++ b/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
@@ -3014,7 +3014,6 @@
       <c r="AO50" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>

--- a/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
+++ b/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -620,11 +620,11 @@
   <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AJ7" activeCellId="0" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,7 +1046,9 @@
       <c r="AO9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="7"/>
@@ -1094,7 +1096,9 @@
       <c r="AO10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="7"/>
@@ -1142,7 +1146,9 @@
       <c r="AO11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="7"/>
@@ -1190,7 +1196,9 @@
       <c r="AO12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="7"/>
@@ -1238,7 +1246,9 @@
       <c r="AO13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="7"/>
@@ -1286,7 +1296,9 @@
       <c r="AO14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="7"/>
@@ -1334,7 +1346,9 @@
       <c r="AO15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
@@ -1382,7 +1396,9 @@
       <c r="AO16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="7"/>
@@ -1430,7 +1446,9 @@
       <c r="AO17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="7"/>
@@ -1478,7 +1496,9 @@
       <c r="AO18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7"/>
@@ -1526,7 +1546,9 @@
       <c r="AO19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7"/>
@@ -1574,7 +1596,9 @@
       <c r="AO20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7"/>
@@ -1622,7 +1646,9 @@
       <c r="AO21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="7"/>
@@ -1670,7 +1696,9 @@
       <c r="AO22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="7"/>
@@ -1718,7 +1746,9 @@
       <c r="AO23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="7"/>
@@ -1766,7 +1796,9 @@
       <c r="AO24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="7"/>
@@ -1814,7 +1846,9 @@
       <c r="AO25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7"/>
@@ -1862,7 +1896,9 @@
       <c r="AO26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7"/>
@@ -1910,7 +1946,9 @@
       <c r="AO27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="7"/>
@@ -1958,7 +1996,9 @@
       <c r="AO28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
+      <c r="A29" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="7"/>
@@ -2006,7 +2046,9 @@
       <c r="AO29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="7"/>
@@ -2054,7 +2096,9 @@
       <c r="AO30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="7"/>
@@ -2102,7 +2146,9 @@
       <c r="AO31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="7"/>
@@ -2150,7 +2196,9 @@
       <c r="AO32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
+      <c r="A33" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="7"/>
@@ -2198,7 +2246,9 @@
       <c r="AO33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
+      <c r="A34" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="7"/>
@@ -2246,7 +2296,9 @@
       <c r="AO34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="7"/>
@@ -2294,7 +2346,9 @@
       <c r="AO35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="7"/>
@@ -2342,7 +2396,9 @@
       <c r="AO36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="7"/>
@@ -2390,7 +2446,9 @@
       <c r="AO37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7"/>
@@ -2438,7 +2496,9 @@
       <c r="AO38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="7"/>
@@ -2486,7 +2546,9 @@
       <c r="AO39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="7"/>
@@ -2534,7 +2596,9 @@
       <c r="AO40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="7"/>
@@ -2582,7 +2646,9 @@
       <c r="AO41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="7"/>
@@ -2630,7 +2696,9 @@
       <c r="AO42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="7"/>
@@ -2678,7 +2746,9 @@
       <c r="AO43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="7"/>
@@ -2726,7 +2796,9 @@
       <c r="AO44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="7"/>
@@ -2774,7 +2846,9 @@
       <c r="AO45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="7"/>
@@ -2822,7 +2896,9 @@
       <c r="AO46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+      <c r="A47" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="7"/>
@@ -2870,7 +2946,9 @@
       <c r="AO47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="7"/>
@@ -2918,7 +2996,9 @@
       <c r="AO48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="7"/>
@@ -2966,7 +3046,9 @@
       <c r="AO49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="7"/>

--- a/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
+++ b/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
@@ -516,7 +516,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,9 +620,9 @@
   <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -1018,9 +1018,9 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
-      <c r="V9" s="18" t="e">
-        <f aca="false" t="array" ref="V9:V9">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W9:AE9,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V9" s="18" t="str">
+        <f aca="false" t="array" ref="V9:V9">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W9:AE9,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
@@ -1068,9 +1068,9 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
-      <c r="V10" s="18" t="e">
-        <f aca="false" t="array" ref="V10:V10">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W10:AE10,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V10" s="18" t="str">
+        <f aca="false" t="array" ref="V10:V10">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W10:AE10,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -1118,9 +1118,9 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
-      <c r="V11" s="18" t="e">
-        <f aca="false" t="array" ref="V11:V11">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W11:AE11,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V11" s="18" t="str">
+        <f aca="false" t="array" ref="V11:V11">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W11:AE11,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -1168,9 +1168,9 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="V12" s="18" t="e">
-        <f aca="false" t="array" ref="V12:V12">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W12:AE12,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V12" s="18" t="str">
+        <f aca="false" t="array" ref="V12:V12">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W12:AE12,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -1218,9 +1218,9 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
-      <c r="V13" s="18" t="e">
-        <f aca="false" t="array" ref="V13:V13">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W13:AE13,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V13" s="18" t="str">
+        <f aca="false" t="array" ref="V13:V13">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W13:AE13,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -1268,9 +1268,9 @@
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
-      <c r="V14" s="18" t="e">
-        <f aca="false" t="array" ref="V14:V14">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W14:AE14,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V14" s="18" t="str">
+        <f aca="false" t="array" ref="V14:V14">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W14:AE14,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -1318,9 +1318,9 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="V15" s="18" t="e">
-        <f aca="false" t="array" ref="V15:V15">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W15:AE15,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V15" s="18" t="str">
+        <f aca="false" t="array" ref="V15:V15">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W15:AE15,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -1368,9 +1368,9 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="V16" s="18" t="e">
-        <f aca="false" t="array" ref="V16:V16">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W16:AE16,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V16" s="18" t="str">
+        <f aca="false" t="array" ref="V16:V16">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W16:AE16,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -1418,9 +1418,9 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="V17" s="18" t="e">
-        <f aca="false" t="array" ref="V17:V17">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W17:AE17,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V17" s="18" t="str">
+        <f aca="false" t="array" ref="V17:V17">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W17:AE17,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -1468,9 +1468,9 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="V18" s="18" t="e">
-        <f aca="false" t="array" ref="V18:V18">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W18:AE18,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V18" s="18" t="str">
+        <f aca="false" t="array" ref="V18:V18">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W18:AE18,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
@@ -1518,9 +1518,9 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-      <c r="V19" s="18" t="e">
-        <f aca="false" t="array" ref="V19:V19">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W19:AE19,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V19" s="18" t="str">
+        <f aca="false" t="array" ref="V19:V19">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W19:AE19,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
@@ -1568,9 +1568,9 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="V20" s="18" t="e">
-        <f aca="false" t="array" ref="V20:V20">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W20:AE20,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V20" s="18" t="str">
+        <f aca="false" t="array" ref="V20:V20">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W20:AE20,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
@@ -1618,9 +1618,9 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
-      <c r="V21" s="18" t="e">
-        <f aca="false" t="array" ref="V21:V21">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W21:AE21,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V21" s="18" t="str">
+        <f aca="false" t="array" ref="V21:V21">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W21:AE21,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
@@ -1668,9 +1668,9 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
-      <c r="V22" s="18" t="e">
-        <f aca="false" t="array" ref="V22:V22">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W22:AE22,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V22" s="18" t="str">
+        <f aca="false" t="array" ref="V22:V22">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W22:AE22,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
@@ -1718,9 +1718,9 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
-      <c r="V23" s="18" t="e">
-        <f aca="false" t="array" ref="V23:V23">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W23:AE23,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V23" s="18" t="str">
+        <f aca="false" t="array" ref="V23:V23">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W23:AE23,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
@@ -1768,9 +1768,9 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
-      <c r="V24" s="18" t="e">
-        <f aca="false" t="array" ref="V24:V24">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W24:AE24,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V24" s="18" t="str">
+        <f aca="false" t="array" ref="V24:V24">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W24:AE24,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
@@ -1818,9 +1818,9 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
-      <c r="V25" s="18" t="e">
-        <f aca="false" t="array" ref="V25:V25">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W25:AE25,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V25" s="18" t="str">
+        <f aca="false" t="array" ref="V25:V25">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W25:AE25,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
@@ -1868,9 +1868,9 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
-      <c r="V26" s="18" t="e">
-        <f aca="false" t="array" ref="V26:V26">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W26:AE26,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V26" s="18" t="str">
+        <f aca="false" t="array" ref="V26:V26">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W26:AE26,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
@@ -1918,9 +1918,9 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
-      <c r="V27" s="18" t="e">
-        <f aca="false" t="array" ref="V27:V27">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W27:AE27,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V27" s="18" t="str">
+        <f aca="false" t="array" ref="V27:V27">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W27:AE27,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
@@ -1968,9 +1968,9 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
-      <c r="V28" s="18" t="e">
-        <f aca="false" t="array" ref="V28:V28">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W28:AE28,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V28" s="18" t="str">
+        <f aca="false" t="array" ref="V28:V28">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W28:AE28,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
@@ -2018,9 +2018,9 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
-      <c r="V29" s="18" t="e">
-        <f aca="false" t="array" ref="V29:V29">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W29:AE29,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V29" s="18" t="str">
+        <f aca="false" t="array" ref="V29:V29">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W29:AE29,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
@@ -2068,9 +2068,9 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="V30" s="18" t="e">
-        <f aca="false" t="array" ref="V30:V30">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W30:AE30,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V30" s="18" t="str">
+        <f aca="false" t="array" ref="V30:V30">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W30:AE30,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
@@ -2118,9 +2118,9 @@
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
-      <c r="V31" s="18" t="e">
-        <f aca="false" t="array" ref="V31:V31">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W31:AE31,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V31" s="18" t="str">
+        <f aca="false" t="array" ref="V31:V31">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W31:AE31,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
@@ -2168,9 +2168,9 @@
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17"/>
-      <c r="V32" s="18" t="e">
-        <f aca="false" t="array" ref="V32:V32">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W32:AE32,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V32" s="18" t="str">
+        <f aca="false" t="array" ref="V32:V32">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W32:AE32,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
@@ -2218,9 +2218,9 @@
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
-      <c r="V33" s="18" t="e">
-        <f aca="false" t="array" ref="V33:V33">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W33:AE33,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V33" s="18" t="str">
+        <f aca="false" t="array" ref="V33:V33">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W33:AE33,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
@@ -2268,9 +2268,9 @@
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
-      <c r="V34" s="18" t="e">
-        <f aca="false" t="array" ref="V34:V34">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W34:AE34,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V34" s="18" t="str">
+        <f aca="false" t="array" ref="V34:V34">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W34:AE34,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
@@ -2318,9 +2318,9 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17"/>
-      <c r="V35" s="18" t="e">
-        <f aca="false" t="array" ref="V35:V35">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W35:AE35,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V35" s="18" t="str">
+        <f aca="false" t="array" ref="V35:V35">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W35:AE35,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
@@ -2368,9 +2368,9 @@
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
-      <c r="V36" s="18" t="e">
-        <f aca="false" t="array" ref="V36:V36">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W36:AE36,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V36" s="18" t="str">
+        <f aca="false" t="array" ref="V36:V36">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W36:AE36,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
@@ -2418,9 +2418,9 @@
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
-      <c r="V37" s="18" t="e">
-        <f aca="false" t="array" ref="V37:V37">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W37:AE37,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V37" s="18" t="str">
+        <f aca="false" t="array" ref="V37:V37">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W37:AE37,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
@@ -2468,9 +2468,9 @@
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
-      <c r="V38" s="18" t="e">
-        <f aca="false" t="array" ref="V38:V38">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W38:AE38,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V38" s="18" t="str">
+        <f aca="false" t="array" ref="V38:V38">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W38:AE38,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
@@ -2518,9 +2518,9 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17"/>
-      <c r="V39" s="18" t="e">
-        <f aca="false" t="array" ref="V39:V39">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W39:AE39,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V39" s="18" t="str">
+        <f aca="false" t="array" ref="V39:V39">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W39:AE39,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
@@ -2568,9 +2568,9 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
-      <c r="V40" s="18" t="e">
-        <f aca="false" t="array" ref="V40:V40">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W40:AE40,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V40" s="18" t="str">
+        <f aca="false" t="array" ref="V40:V40">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W40:AE40,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
@@ -2618,9 +2618,9 @@
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
-      <c r="V41" s="18" t="e">
-        <f aca="false" t="array" ref="V41:V41">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W41:AE41,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V41" s="18" t="str">
+        <f aca="false" t="array" ref="V41:V41">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W41:AE41,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
@@ -2668,9 +2668,9 @@
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
-      <c r="V42" s="18" t="e">
-        <f aca="false" t="array" ref="V42:V42">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W42:AE42,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V42" s="18" t="str">
+        <f aca="false" t="array" ref="V42:V42">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W42:AE42,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -2718,9 +2718,9 @@
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
-      <c r="V43" s="18" t="e">
-        <f aca="false" t="array" ref="V43:V43">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W43:AE43,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V43" s="18" t="str">
+        <f aca="false" t="array" ref="V43:V43">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W43:AE43,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
@@ -2768,9 +2768,9 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
-      <c r="V44" s="18" t="e">
-        <f aca="false" t="array" ref="V44:V44">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W44:AE44,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V44" s="18" t="str">
+        <f aca="false" t="array" ref="V44:V44">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W44:AE44,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
@@ -2818,9 +2818,9 @@
       <c r="R45" s="17"/>
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
-      <c r="V45" s="18" t="e">
-        <f aca="false" t="array" ref="V45:V45">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W45:AE45,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V45" s="18" t="str">
+        <f aca="false" t="array" ref="V45:V45">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W45:AE45,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
@@ -2868,9 +2868,9 @@
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
-      <c r="V46" s="18" t="e">
-        <f aca="false" t="array" ref="V46:V46">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W46:AE46,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V46" s="18" t="str">
+        <f aca="false" t="array" ref="V46:V46">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W46:AE46,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
@@ -2918,9 +2918,9 @@
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
-      <c r="V47" s="18" t="e">
-        <f aca="false" t="array" ref="V47:V47">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W47:AE47,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V47" s="18" t="str">
+        <f aca="false" t="array" ref="V47:V47">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W47:AE47,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
@@ -2968,9 +2968,9 @@
       <c r="R48" s="17"/>
       <c r="S48" s="17"/>
       <c r="T48" s="17"/>
-      <c r="V48" s="18" t="e">
-        <f aca="false" t="array" ref="V48:V48">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W48:AE48,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V48" s="18" t="str">
+        <f aca="false" t="array" ref="V48:V48">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W48:AE48,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
@@ -3018,9 +3018,9 @@
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
-      <c r="V49" s="18" t="e">
-        <f aca="false" t="array" ref="V49:V49">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W49:AE49,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V49" s="18" t="str">
+        <f aca="false" t="array" ref="V49:V49">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W49:AE49,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
@@ -3068,9 +3068,9 @@
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
-      <c r="V50" s="18" t="e">
-        <f aca="false" t="array" ref="V50:V50">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W50:AE50,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="V50" s="18" t="str">
+        <f aca="false" t="array" ref="V50:V50">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W50:AE50,"-",""),"+","")),"")),"0"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
@@ -3102,10 +3102,6 @@
   <dataValidations count="7">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E9:T50 W9:AE50 AG9:AG50" type="list">
       <formula1>"1+,1,1-,2+,2,2-,3+,3,3-,4+,4,4-,5+,5,5-,6,nb,nt,t,*"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V9:V50" type="none">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI9:AJ50" type="none">
@@ -3128,6 +3124,10 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V9:V50" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.636805555555555" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
+++ b/TestData/Vorlagen/Notenzeugnis/Notentabelle.xlsx
@@ -124,31 +124,31 @@
     <t xml:space="preserve">__Ku</t>
   </si>
   <si>
-    <t xml:space="preserve">Bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ktr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web</t>
+    <t xml:space="preserve">Bb_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kge_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ktr_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mal_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pls_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snt_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sth_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web_k</t>
   </si>
   <si>
     <t xml:space="preserve">Eu</t>
@@ -620,11 +620,11 @@
   <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="AD6" activeCellId="0" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
